--- a/configs/datas/item.xlsx
+++ b/configs/datas/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11560"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/configs/datas/item.xlsx
+++ b/configs/datas/item.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11640"/>
+    <workbookView windowWidth="28800" windowHeight="11620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -118,7 +119,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>int#ref=item.TbItem</t>
+    <t>int#ref=guide.TbGuide</t>
   </si>
   <si>
     <t>datetime?</t>
@@ -358,6 +359,45 @@
   </si>
   <si>
     <t>10001,2;10002,12</t>
+  </si>
+  <si>
+    <t>id1</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>desc1</t>
+  </si>
+  <si>
+    <t>发型1111</t>
+  </si>
+  <si>
+    <t>外套1</t>
+  </si>
+  <si>
+    <t>上衣1</t>
+  </si>
+  <si>
+    <t>裙子1</t>
+  </si>
+  <si>
+    <t>袜子1</t>
+  </si>
+  <si>
+    <t>鞋子1</t>
+  </si>
+  <si>
+    <t>发饰1</t>
+  </si>
+  <si>
+    <t>中秋节发饰1</t>
+  </si>
+  <si>
+    <t>中秋节鞋子1</t>
+  </si>
+  <si>
+    <t>礼包1</t>
   </si>
 </sst>
 </file>
@@ -1021,13 +1061,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1393,45 +1435,45 @@
     <col min="13" max="13" width="5.13392857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1" ht="17" spans="1:35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1454,27 +1496,27 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:35">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:35">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="7" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="N2" s="15"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1497,45 +1539,45 @@
       <c r="AH2"/>
       <c r="AI2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:35">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:35">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="15"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1558,33 +1600,33 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:35">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:35">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="15"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1607,43 +1649,43 @@
       <c r="AH4"/>
       <c r="AI4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="17" spans="1:35">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="4" customFormat="1" ht="17" spans="1:35">
+      <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="13"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="15"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1682,25 +1724,25 @@
       <c r="F6">
         <v>10001</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="13">
         <v>10001</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1720,25 +1762,25 @@
       <c r="F7">
         <v>10002</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J7" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="13">
         <v>10001</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="13">
         <v>3</v>
       </c>
     </row>
@@ -1758,25 +1800,25 @@
       <c r="F8">
         <v>10003</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="13">
         <v>10001</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1794,27 +1836,27 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>10004</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>10001</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="13">
         <v>10001</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1832,27 +1874,27 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>10005</v>
-      </c>
-      <c r="G10" s="5" t="s">
+        <v>10002</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="13">
         <v>10001</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1860,7 +1902,7 @@
       <c r="B11">
         <v>10005</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D11" t="s">
@@ -1870,27 +1912,27 @@
         <v>100</v>
       </c>
       <c r="F11">
-        <v>10006</v>
-      </c>
-      <c r="G11" s="5" t="s">
+        <v>10003</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="13">
         <v>10001</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="13">
         <v>7</v>
       </c>
     </row>
@@ -1908,27 +1950,27 @@
         <v>100</v>
       </c>
       <c r="F12">
-        <v>10007</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>10001</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J12" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="13">
         <v>10001</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="13">
         <v>8</v>
       </c>
     </row>
@@ -1936,37 +1978,37 @@
       <c r="B13">
         <v>10007</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E13">
         <v>200</v>
       </c>
       <c r="F13">
-        <v>10008</v>
-      </c>
-      <c r="G13" s="6">
+        <v>10002</v>
+      </c>
+      <c r="G13" s="8">
         <v>44479.9999884259</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="13">
         <v>10001</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="13">
         <v>9</v>
       </c>
     </row>
@@ -1974,37 +2016,37 @@
       <c r="B14">
         <v>10008</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E14">
         <v>300</v>
       </c>
       <c r="F14">
-        <v>10009</v>
-      </c>
-      <c r="G14" s="6">
+        <v>10003</v>
+      </c>
+      <c r="G14" s="8">
         <v>44480.9999884259</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J14" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="13">
         <v>10001</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2012,37 +2054,37 @@
       <c r="B15">
         <v>10009</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15">
-        <v>10000</v>
-      </c>
-      <c r="G15" s="5" t="s">
+        <v>10003</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>81</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>82</v>
       </c>
       <c r="J15" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="13">
         <v>10001</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2055,4 +2097,191 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>20000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>20001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>20002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>20003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>20004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>20005</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>20006</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>20007</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>20008</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>20009</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>